--- a/vvdung/database/DSSV_2022-2023.2.TIN4403.001.xlsx
+++ b/vvdung/database/DSSV_2022-2023.2.TIN4403.001.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVDUNG\MyDocs\TIN4403_LTDD\2022-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Src_Github\vvdung-husc\2022-2023.2.TIN4403.001\vvdung\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6D86A-CB9D-467D-84EE-2D67399CD2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DANHSACHSINHVIEN" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="277">
   <si>
     <t>STT</t>
   </si>
@@ -760,12 +761,114 @@
   </si>
   <si>
     <t>fullname</t>
+  </si>
+  <si>
+    <t>Do Quoc An</t>
+  </si>
+  <si>
+    <t>Nguyen Van Chinh</t>
+  </si>
+  <si>
+    <t>Le Nhat Duy</t>
+  </si>
+  <si>
+    <t>Tong Van Duyen</t>
+  </si>
+  <si>
+    <t>Truong Huu Tuan Dung</t>
+  </si>
+  <si>
+    <t>Le Minh Duong</t>
+  </si>
+  <si>
+    <t>Nguyen Khanh Dat</t>
+  </si>
+  <si>
+    <t>Tran Cong Duc</t>
+  </si>
+  <si>
+    <t>Hoang Thi Ngan Ha</t>
+  </si>
+  <si>
+    <t>Tran Van Hai</t>
+  </si>
+  <si>
+    <t>Le Dinh Ngoc Huy</t>
+  </si>
+  <si>
+    <t>Le Minh Khoi</t>
+  </si>
+  <si>
+    <t>Le Pham Hoang Long</t>
+  </si>
+  <si>
+    <t>Tran Van Loc</t>
+  </si>
+  <si>
+    <t>Ha Thi Lua</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Nam</t>
+  </si>
+  <si>
+    <t>Le Nhat Phi</t>
+  </si>
+  <si>
+    <t>Luong Huu Quang</t>
+  </si>
+  <si>
+    <t>Tran Van Quang</t>
+  </si>
+  <si>
+    <t>Nguyen Duc Quan</t>
+  </si>
+  <si>
+    <t>Tran Duy Quy</t>
+  </si>
+  <si>
+    <t>Ngo Cong Sang</t>
+  </si>
+  <si>
+    <t>Le Van Si</t>
+  </si>
+  <si>
+    <t>Nguyen Dang Tai</t>
+  </si>
+  <si>
+    <t>Ngo Huu Thanh</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Thanh</t>
+  </si>
+  <si>
+    <t>Nguyen Van Thanh</t>
+  </si>
+  <si>
+    <t>Ngo Thi Thu Thao</t>
+  </si>
+  <si>
+    <t>Nguyen Huu Thang</t>
+  </si>
+  <si>
+    <t>Nguyen Pham Dinh Thuat</t>
+  </si>
+  <si>
+    <t>Le Tu Toan</t>
+  </si>
+  <si>
+    <t>Ho Quoc Trong</t>
+  </si>
+  <si>
+    <t>Ho Sy Tung</t>
+  </si>
+  <si>
+    <t>Mai Thi Nhu Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,15 +917,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0">
+  <autoFilter ref="A1:F35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="STT"/>
-    <tableColumn id="2" name="Mã sinh viên"/>
-    <tableColumn id="3" name="Họ"/>
-    <tableColumn id="4" name="Tên"/>
-    <tableColumn id="5" name="Ngày sinh"/>
-    <tableColumn id="6" name="Khóa học"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mã sinh viên"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Họ"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tên"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ngày sinh"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Khóa học"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,30 +1215,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1224,16 +1328,15 @@
         <f>RIGHT(B2,6)</f>
         <v>080023</v>
       </c>
-      <c r="U2" t="str">
-        <f>CONCATENATE(C2," ",D2)</f>
-        <v>Đỗ Quốc Ân</v>
-      </c>
-      <c r="V2">
+      <c r="U2" t="s">
+        <v>243</v>
+      </c>
+      <c r="W2">
         <f>COUNTIF($S$2:$S$35,S2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1302,16 +1405,15 @@
         <f t="shared" ref="T3:T35" si="7">RIGHT(B3,6)</f>
         <v>021023</v>
       </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U35" si="8">CONCATENATE(C3," ",D3)</f>
-        <v>Nguyễn Văn Chính</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V35" si="9">COUNTIF($S$2:$S$35,S3)</f>
+      <c r="U3" t="s">
+        <v>244</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W35" si="8">COUNTIF($S$2:$S$35,S3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1380,16 +1482,15 @@
         <f t="shared" si="7"/>
         <v>021052</v>
       </c>
-      <c r="U4" t="str">
+      <c r="U4" t="s">
+        <v>245</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="8"/>
-        <v>Lê Nhật Duy</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1458,16 +1559,15 @@
         <f t="shared" si="7"/>
         <v>021059</v>
       </c>
-      <c r="U5" t="str">
+      <c r="U5" t="s">
+        <v>246</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="8"/>
-        <v>Tống Văn Duyên</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1536,16 +1636,15 @@
         <f t="shared" si="7"/>
         <v>021047</v>
       </c>
-      <c r="U6" t="str">
+      <c r="U6" t="s">
+        <v>247</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="8"/>
-        <v>Trương Hữu Tuấn Dũng</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1614,16 +1713,15 @@
         <f t="shared" si="7"/>
         <v>021313</v>
       </c>
-      <c r="U7" t="str">
+      <c r="U7" t="s">
+        <v>248</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="8"/>
-        <v>Lê Minh Dương</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1692,16 +1790,15 @@
         <f t="shared" si="7"/>
         <v>021054</v>
       </c>
-      <c r="U8" t="str">
+      <c r="U8" t="s">
+        <v>249</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="8"/>
-        <v>Nguyễn Khánh Đạt</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1770,16 +1867,15 @@
         <f t="shared" si="7"/>
         <v>021041</v>
       </c>
-      <c r="U9" t="str">
+      <c r="U9" t="s">
+        <v>250</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="8"/>
-        <v>Trần Công Đức</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1848,16 +1944,15 @@
         <f t="shared" si="7"/>
         <v>021064</v>
       </c>
-      <c r="U10" t="str">
+      <c r="U10" t="s">
+        <v>251</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="8"/>
-        <v>Hoàng Thị Ngân Hà</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1926,16 +2021,15 @@
         <f t="shared" si="7"/>
         <v>021066</v>
       </c>
-      <c r="U11" t="str">
+      <c r="U11" t="s">
+        <v>252</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="8"/>
-        <v>Trần Văn Hải</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2004,16 +2098,15 @@
         <f t="shared" si="7"/>
         <v>021086</v>
       </c>
-      <c r="U12" t="str">
+      <c r="U12" t="s">
+        <v>253</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="8"/>
-        <v>Lê Đình Ngọc Huy</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2082,16 +2175,15 @@
         <f t="shared" si="7"/>
         <v>080072</v>
       </c>
-      <c r="U13" t="str">
+      <c r="U13" t="s">
+        <v>254</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="8"/>
-        <v>Lê Minh Khôi</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2160,16 +2252,15 @@
         <f t="shared" si="7"/>
         <v>021166</v>
       </c>
-      <c r="U14" t="str">
+      <c r="U14" t="s">
+        <v>255</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="8"/>
-        <v>Lê Phạm Hoàng Long</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2238,16 +2329,15 @@
         <f t="shared" si="7"/>
         <v>021119</v>
       </c>
-      <c r="U15" t="str">
+      <c r="U15" t="s">
+        <v>256</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="8"/>
-        <v>Trần Văn Lộc</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2316,16 +2406,15 @@
         <f t="shared" si="7"/>
         <v>021129</v>
       </c>
-      <c r="U16" t="str">
+      <c r="U16" t="s">
+        <v>257</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="8"/>
-        <v>Hà Thị Lụa</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2394,16 +2483,15 @@
         <f t="shared" si="7"/>
         <v>021143</v>
       </c>
-      <c r="U17" t="str">
+      <c r="U17" t="s">
+        <v>258</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="8"/>
-        <v>Nguyễn Thành Nam</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2472,16 +2560,15 @@
         <f t="shared" si="7"/>
         <v>021167</v>
       </c>
-      <c r="U18" t="str">
+      <c r="U18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="8"/>
-        <v>Lê Nhật Phi</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2550,16 +2637,15 @@
         <f t="shared" si="7"/>
         <v>021196</v>
       </c>
-      <c r="U19" t="str">
+      <c r="U19" t="s">
+        <v>260</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="8"/>
-        <v>Lương Hữu Quang</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2628,16 +2714,15 @@
         <f t="shared" si="7"/>
         <v>080001</v>
       </c>
-      <c r="U20" t="str">
+      <c r="U20" t="s">
+        <v>261</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="8"/>
-        <v>Trần Văn Quang</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2706,16 +2791,15 @@
         <f t="shared" si="7"/>
         <v>021195</v>
       </c>
-      <c r="U21" t="str">
+      <c r="U21" t="s">
+        <v>262</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="8"/>
-        <v>Nguyễn Đức Quân</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2784,16 +2868,15 @@
         <f t="shared" si="7"/>
         <v>021207</v>
       </c>
-      <c r="U22" t="str">
+      <c r="U22" t="s">
+        <v>263</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="8"/>
-        <v>Trần Duy Quý</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2862,16 +2945,15 @@
         <f t="shared" si="7"/>
         <v>021212</v>
       </c>
-      <c r="U23" t="str">
+      <c r="U23" t="s">
+        <v>264</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="8"/>
-        <v>Ngô Công Sang</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2940,16 +3022,15 @@
         <f t="shared" si="7"/>
         <v>021216</v>
       </c>
-      <c r="U24" t="str">
+      <c r="U24" t="s">
+        <v>265</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="8"/>
-        <v>Lê Văn Sĩ</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3018,16 +3099,15 @@
         <f t="shared" si="7"/>
         <v>021220</v>
       </c>
-      <c r="U25" t="str">
+      <c r="U25" t="s">
+        <v>266</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="8"/>
-        <v>Nguyễn Đăng Tài</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3096,16 +3176,15 @@
         <f t="shared" si="7"/>
         <v>021241</v>
       </c>
-      <c r="U26" t="str">
+      <c r="U26" t="s">
+        <v>267</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="8"/>
-        <v>Ngô Hữu Thanh</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3174,16 +3253,15 @@
         <f t="shared" si="7"/>
         <v>101002</v>
       </c>
-      <c r="U27" t="str">
+      <c r="U27" t="s">
+        <v>268</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="8"/>
-        <v>Nguyễn Ngọc Thành</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3252,16 +3330,15 @@
         <f t="shared" si="7"/>
         <v>021245</v>
       </c>
-      <c r="U28" t="str">
+      <c r="U28" t="s">
+        <v>269</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="8"/>
-        <v>Nguyễn Văn Thành</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3330,16 +3407,15 @@
         <f t="shared" si="7"/>
         <v>020562</v>
       </c>
-      <c r="U29" t="str">
+      <c r="U29" t="s">
+        <v>270</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="8"/>
-        <v>Ngô Thị Thu Thảo</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3408,16 +3484,15 @@
         <f t="shared" si="7"/>
         <v>021239</v>
       </c>
-      <c r="U30" t="str">
+      <c r="U30" t="s">
+        <v>271</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="8"/>
-        <v>Nguyễn Hữu Thắng</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3486,16 +3561,15 @@
         <f t="shared" si="7"/>
         <v>021268</v>
       </c>
-      <c r="U31" t="str">
+      <c r="U31" t="s">
+        <v>272</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="8"/>
-        <v>Nguyễn Phạm Đình Thuật</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3564,16 +3638,15 @@
         <f t="shared" si="7"/>
         <v>080057</v>
       </c>
-      <c r="U32" t="str">
+      <c r="U32" t="s">
+        <v>273</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="8"/>
-        <v>Lê Tự Toàn</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3642,16 +3715,15 @@
         <f t="shared" si="7"/>
         <v>021286</v>
       </c>
-      <c r="U33" t="str">
+      <c r="U33" t="s">
+        <v>274</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="8"/>
-        <v>Hồ Quốc Trọng</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3720,16 +3792,15 @@
         <f t="shared" si="7"/>
         <v>021299</v>
       </c>
-      <c r="U34" t="str">
+      <c r="U34" t="s">
+        <v>275</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="8"/>
-        <v>Hồ Sỹ Tùng</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3798,12 +3869,11 @@
         <f t="shared" si="7"/>
         <v>021309</v>
       </c>
-      <c r="U35" t="str">
+      <c r="U35" t="s">
+        <v>276</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="8"/>
-        <v>Mai Thị Như Ý</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3817,16 +3887,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>240</v>
       </c>
@@ -3837,7 +3910,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3848,7 +3921,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3859,7 +3932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -3870,7 +3943,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -3881,7 +3954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3892,7 +3965,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -3903,7 +3976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -3914,7 +3987,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -3925,7 +3998,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3936,7 +4009,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -3947,7 +4020,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -3958,7 +4031,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -3969,7 +4042,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3980,7 +4053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -3991,7 +4064,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4002,7 +4075,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -4013,7 +4086,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -4024,7 +4097,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -4035,7 +4108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -4046,7 +4119,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -4057,7 +4130,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -4068,7 +4141,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -4079,7 +4152,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -4090,7 +4163,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -4101,7 +4174,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -4112,7 +4185,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -4123,7 +4196,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -4134,7 +4207,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -4145,7 +4218,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -4156,7 +4229,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -4167,7 +4240,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -4178,7 +4251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -4189,7 +4262,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -4200,7 +4273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>171</v>
       </c>
